--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H2">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I2">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J2">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>991.4921703053865</v>
+        <v>1716.766827818964</v>
       </c>
       <c r="R2">
-        <v>991.4921703053865</v>
+        <v>15450.90145037067</v>
       </c>
       <c r="S2">
-        <v>0.01687102651882263</v>
+        <v>0.02080151675420503</v>
       </c>
       <c r="T2">
-        <v>0.01687102651882263</v>
+        <v>0.02469211414141471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H3">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I3">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J3">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>1110.438513656168</v>
+        <v>1837.187784094153</v>
       </c>
       <c r="R3">
-        <v>1110.438513656168</v>
+        <v>16534.69005684738</v>
       </c>
       <c r="S3">
-        <v>0.01889499299388811</v>
+        <v>0.02226061911972435</v>
       </c>
       <c r="T3">
-        <v>0.01889499299388811</v>
+        <v>0.02642411871488544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H4">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I4">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J4">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>571.2905890024533</v>
+        <v>922.5120058178248</v>
       </c>
       <c r="R4">
-        <v>571.2905890024533</v>
+        <v>8302.608052360423</v>
       </c>
       <c r="S4">
-        <v>0.009720962974468613</v>
+        <v>0.01117778409625606</v>
       </c>
       <c r="T4">
-        <v>0.009720962974468613</v>
+        <v>0.01326841326111715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H5">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I5">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J5">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>679.6751528840468</v>
+        <v>1053.976032422576</v>
       </c>
       <c r="R5">
-        <v>679.6751528840468</v>
+        <v>9485.784291803184</v>
       </c>
       <c r="S5">
-        <v>0.01156521238585245</v>
+        <v>0.01277069182704451</v>
       </c>
       <c r="T5">
-        <v>0.01156521238585245</v>
+        <v>0.01515924939437263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.0125028905729</v>
+        <v>12.42062066666667</v>
       </c>
       <c r="H6">
-        <v>8.0125028905729</v>
+        <v>37.261862</v>
       </c>
       <c r="I6">
-        <v>0.07987318303563874</v>
+        <v>0.09248309627941088</v>
       </c>
       <c r="J6">
-        <v>0.07987318303563874</v>
+        <v>0.09970170425017694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1341.165047462431</v>
+        <v>2102.265757726607</v>
       </c>
       <c r="R6">
-        <v>1341.165047462431</v>
+        <v>12613.59454635964</v>
       </c>
       <c r="S6">
-        <v>0.02282098816260695</v>
+        <v>0.02547248448218094</v>
       </c>
       <c r="T6">
-        <v>0.02282098816260695</v>
+        <v>0.020157808738387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H7">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J7">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>6624.49416331727</v>
+        <v>7939.761305988836</v>
       </c>
       <c r="R7">
-        <v>6624.49416331727</v>
+        <v>71457.85175389954</v>
       </c>
       <c r="S7">
-        <v>0.112721028012443</v>
+        <v>0.09620355843008632</v>
       </c>
       <c r="T7">
-        <v>0.112721028012443</v>
+        <v>0.1141969248509606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H8">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J8">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>7419.214869011281</v>
+        <v>8496.688218584533</v>
       </c>
       <c r="R8">
-        <v>7419.214869011281</v>
+        <v>76470.1939672608</v>
       </c>
       <c r="S8">
-        <v>0.1262438318250959</v>
+        <v>0.1029516644136723</v>
       </c>
       <c r="T8">
-        <v>0.1262438318250959</v>
+        <v>0.1222071581985546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H9">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J9">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>3816.985434427769</v>
+        <v>4266.464734414649</v>
       </c>
       <c r="R9">
-        <v>3816.985434427769</v>
+        <v>38398.18260973184</v>
       </c>
       <c r="S9">
-        <v>0.06494903783895345</v>
+        <v>0.05169539404888245</v>
       </c>
       <c r="T9">
-        <v>0.06494903783895345</v>
+        <v>0.06136420653952445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H10">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J10">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>4541.139323213555</v>
+        <v>4874.464012273459</v>
       </c>
       <c r="R10">
-        <v>4541.139323213555</v>
+        <v>43870.17611046113</v>
       </c>
       <c r="S10">
-        <v>0.07727109123212401</v>
+        <v>0.05906232761259311</v>
       </c>
       <c r="T10">
-        <v>0.07727109123212401</v>
+        <v>0.07010900945831115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.5342388188646</v>
+        <v>57.44330666666667</v>
       </c>
       <c r="H11">
-        <v>53.5342388188646</v>
+        <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.533659720844985</v>
+        <v>0.4277189525092218</v>
       </c>
       <c r="J11">
-        <v>0.533659720844985</v>
+        <v>0.4611038148683137</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>8960.776791836395</v>
+        <v>9722.629799009123</v>
       </c>
       <c r="R11">
-        <v>8960.776791836395</v>
+        <v>58335.77879405473</v>
       </c>
       <c r="S11">
-        <v>0.1524747319363687</v>
+        <v>0.1178060080039877</v>
       </c>
       <c r="T11">
-        <v>0.1524747319363687</v>
+        <v>0.09322651582096282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H12">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I12">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J12">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>684.5711468640985</v>
+        <v>2297.997985193918</v>
       </c>
       <c r="R12">
-        <v>684.5711468640985</v>
+        <v>20681.98186674526</v>
       </c>
       <c r="S12">
-        <v>0.01164852161082394</v>
+        <v>0.02784410952934693</v>
       </c>
       <c r="T12">
-        <v>0.01164852161082394</v>
+        <v>0.03305191341519377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H13">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I13">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J13">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>766.6970951283748</v>
+        <v>2459.188841407673</v>
       </c>
       <c r="R13">
-        <v>766.6970951283748</v>
+        <v>22132.69957266906</v>
       </c>
       <c r="S13">
-        <v>0.0130459598282365</v>
+        <v>0.02979720778463815</v>
       </c>
       <c r="T13">
-        <v>0.0130459598282365</v>
+        <v>0.03537030806010831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H14">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I14">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J14">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>394.4449239428866</v>
+        <v>1234.839056961387</v>
       </c>
       <c r="R14">
-        <v>394.4449239428866</v>
+        <v>11113.55151265249</v>
       </c>
       <c r="S14">
-        <v>0.006711793568683176</v>
+        <v>0.0149621514791045</v>
       </c>
       <c r="T14">
-        <v>0.006711793568683176</v>
+        <v>0.01776058719605152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H15">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I15">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J15">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>469.2785408094066</v>
+        <v>1410.811741992237</v>
       </c>
       <c r="R15">
-        <v>469.2785408094066</v>
+        <v>12697.30567793014</v>
       </c>
       <c r="S15">
-        <v>0.007985146977279037</v>
+        <v>0.01709435644522799</v>
       </c>
       <c r="T15">
-        <v>0.007985146977279037</v>
+        <v>0.02029158765234131</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.53219526823085</v>
+        <v>16.62576466666667</v>
       </c>
       <c r="H16">
-        <v>5.53219526823085</v>
+        <v>49.877294</v>
       </c>
       <c r="I16">
-        <v>0.05514806687535596</v>
+        <v>0.1237943123496749</v>
       </c>
       <c r="J16">
-        <v>0.05514806687535596</v>
+        <v>0.1334568630839523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>926.0011547974318</v>
+        <v>2814.012012181859</v>
       </c>
       <c r="R16">
-        <v>926.0011547974318</v>
+        <v>16884.07207309116</v>
       </c>
       <c r="S16">
-        <v>0.01575664489033331</v>
+        <v>0.03409648711135736</v>
       </c>
       <c r="T16">
-        <v>0.01575664489033331</v>
+        <v>0.02698246676025738</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H17">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I17">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J17">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>551.0143602186999</v>
+        <v>2576.502346894204</v>
       </c>
       <c r="R17">
-        <v>551.0143602186999</v>
+        <v>23188.52112204784</v>
       </c>
       <c r="S17">
-        <v>0.009375946842463199</v>
+        <v>0.03121865815887031</v>
       </c>
       <c r="T17">
-        <v>0.009375946842463199</v>
+        <v>0.03705761842798336</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H18">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I18">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J18">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>617.1179011691015</v>
+        <v>2757.228623422066</v>
       </c>
       <c r="R18">
-        <v>617.1179011691015</v>
+        <v>24815.0576107986</v>
       </c>
       <c r="S18">
-        <v>0.01050075107769867</v>
+        <v>0.03340846087884448</v>
       </c>
       <c r="T18">
-        <v>0.01050075107769867</v>
+        <v>0.03965698939442274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H19">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I19">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J19">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>317.4904732744322</v>
+        <v>1384.494568227031</v>
       </c>
       <c r="R19">
-        <v>317.4904732744322</v>
+        <v>12460.45111404328</v>
       </c>
       <c r="S19">
-        <v>0.00540235248901329</v>
+        <v>0.01677547963439414</v>
       </c>
       <c r="T19">
-        <v>0.00540235248901329</v>
+        <v>0.0199130699363883</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H20">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I20">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J20">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>377.7243842557004</v>
+        <v>1581.794147640283</v>
       </c>
       <c r="R20">
-        <v>377.7243842557004</v>
+        <v>14236.14732876254</v>
       </c>
       <c r="S20">
-        <v>0.006427280309859701</v>
+        <v>0.01916609578578866</v>
       </c>
       <c r="T20">
-        <v>0.006427280309859701</v>
+        <v>0.02275081333635506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.45288857161591</v>
+        <v>18.64071333333333</v>
       </c>
       <c r="H21">
-        <v>4.45288857161591</v>
+        <v>55.92214000000001</v>
       </c>
       <c r="I21">
-        <v>0.04438892425691857</v>
+        <v>0.1387974830074432</v>
       </c>
       <c r="J21">
-        <v>0.04438892425691857</v>
+        <v>0.149631080253504</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>745.3424471799677</v>
+        <v>3155.05435613479</v>
       </c>
       <c r="R21">
-        <v>745.3424471799677</v>
+        <v>18930.32613680874</v>
       </c>
       <c r="S21">
-        <v>0.01268259353788371</v>
+        <v>0.03822878854954565</v>
       </c>
       <c r="T21">
-        <v>0.01268259353788371</v>
+        <v>0.0302525891583545</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H22">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I22">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J22">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>3561.758048288588</v>
+        <v>4032.005179001193</v>
       </c>
       <c r="R22">
-        <v>3561.758048288588</v>
+        <v>24192.03107400716</v>
       </c>
       <c r="S22">
-        <v>0.06060614121420486</v>
+        <v>0.04885452230608876</v>
       </c>
       <c r="T22">
-        <v>0.06060614121420486</v>
+        <v>0.03866132953541721</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H23">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I23">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J23">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>3989.051483811789</v>
+        <v>4314.826300363775</v>
       </c>
       <c r="R23">
-        <v>3989.051483811789</v>
+        <v>25888.95780218265</v>
       </c>
       <c r="S23">
-        <v>0.06787687828902247</v>
+        <v>0.05228137573728004</v>
       </c>
       <c r="T23">
-        <v>0.06787687828902247</v>
+        <v>0.04137319127347272</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H24">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I24">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J24">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>2052.259124410719</v>
+        <v>2166.615247263203</v>
       </c>
       <c r="R24">
-        <v>2052.259124410719</v>
+        <v>12999.69148357922</v>
       </c>
       <c r="S24">
-        <v>0.0349208184879207</v>
+        <v>0.02625218674752621</v>
       </c>
       <c r="T24">
-        <v>0.0349208184879207</v>
+        <v>0.02077483096677276</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H25">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I25">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J25">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>2441.611258776653</v>
+        <v>2475.37216610239</v>
       </c>
       <c r="R25">
-        <v>2441.611258776653</v>
+        <v>14852.23299661434</v>
       </c>
       <c r="S25">
-        <v>0.04154595419829614</v>
+        <v>0.02999329597455476</v>
       </c>
       <c r="T25">
-        <v>0.04154595419829614</v>
+        <v>0.02373538097989027</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.7834816170495</v>
+        <v>29.1711175</v>
       </c>
       <c r="H26">
-        <v>28.7834816170495</v>
+        <v>58.342235</v>
       </c>
       <c r="I26">
-        <v>0.2869301049871016</v>
+        <v>0.2172061558542492</v>
       </c>
       <c r="J26">
-        <v>0.2869301049871016</v>
+        <v>0.156106537544053</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>4817.895234020195</v>
+        <v>4937.389449421722</v>
       </c>
       <c r="R26">
-        <v>4817.895234020195</v>
+        <v>19749.55779768689</v>
       </c>
       <c r="S26">
-        <v>0.0819803127976575</v>
+        <v>0.0598247750887994</v>
       </c>
       <c r="T26">
-        <v>0.0819803127976575</v>
+        <v>0.03156180478850006</v>
       </c>
     </row>
   </sheetData>
